--- a/src/data/items/properties.xlsx
+++ b/src/data/items/properties.xlsx
@@ -451,17 +451,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>{'Access Restrictions': 47965}</t>
+          <t>{'Access Restrictions': 48378}</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{True: 47965}</t>
+          <t>{True: 48378}</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'literal': 47965}</t>
+          <t>{'literal': 48378}</t>
         </is>
       </c>
     </row>
@@ -473,17 +473,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>{'Accruals': 450}</t>
+          <t>{'Accruals': 454}</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{True: 450}</t>
+          <t>{True: 454}</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'literal': 450}</t>
+          <t>{'literal': 454}</t>
         </is>
       </c>
     </row>
@@ -495,17 +495,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>{'Acquisitions': 12335}</t>
+          <t>{'Acquisitions': 12751}</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{True: 12335}</t>
+          <t>{True: 12751}</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'literal': 12335}</t>
+          <t>{'literal': 12751}</t>
         </is>
       </c>
     </row>
@@ -517,17 +517,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>{'Alternate Forms Available': 6443}</t>
+          <t>{'Alternate Forms Available': 6154}</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{True: 6443}</t>
+          <t>{True: 6154}</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'literal': 6443}</t>
+          <t>{'literal': 6154}</t>
         </is>
       </c>
     </row>
@@ -539,17 +539,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>{'Appraisal': 476}</t>
+          <t>{'Appraisal': 488}</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{True: 476}</t>
+          <t>{True: 488}</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{'literal': 476}</t>
+          <t>{'literal': 488}</t>
         </is>
       </c>
     </row>
@@ -561,17 +561,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>{'Bibliography': 121}</t>
+          <t>{'Bibliography': 119}</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>{True: 121}</t>
+          <t>{True: 119}</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>{'literal': 121}</t>
+          <t>{'literal': 119}</t>
         </is>
       </c>
     </row>
@@ -583,17 +583,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>{'Custodial History': 611}</t>
+          <t>{'Custodial History': 627}</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>{True: 611}</t>
+          <t>{True: 627}</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{'literal': 611}</t>
+          <t>{'literal': 627}</t>
         </is>
       </c>
     </row>
@@ -605,17 +605,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>{'Date created or accumulated': 43261}</t>
+          <t>{'Date created or accumulated': 43697}</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>{True: 43261}</t>
+          <t>{True: 43697}</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>{'literal': 43261}</t>
+          <t>{'literal': 43697}</t>
         </is>
       </c>
     </row>
@@ -627,17 +627,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>{'Has Biographical History': 507}</t>
+          <t>{'Has Biographical History': 517}</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>{True: 507}</t>
+          <t>{True: 517}</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>{'literal': 507}</t>
+          <t>{'literal': 517}</t>
         </is>
       </c>
     </row>
@@ -649,17 +649,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>{'Level': 46446}</t>
+          <t>{'Level': 46743}</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>{True: 46443, False: 3}</t>
+          <t>{True: 46740, False: 3}</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{'literal': 46446}</t>
+          <t>{'literal': 46743}</t>
         </is>
       </c>
     </row>
@@ -671,17 +671,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>{'Location': 47999}</t>
+          <t>{'Location': 48411}</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>{True: 47999}</t>
+          <t>{True: 48411}</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>{'literal': 47999}</t>
+          <t>{'literal': 48411}</t>
         </is>
       </c>
     </row>
@@ -693,17 +693,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>{'Location of Originals': 112}</t>
+          <t>{'Location of Originals': 104}</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>{True: 112}</t>
+          <t>{True: 104}</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>{'literal': 112}</t>
+          <t>{'literal': 104}</t>
         </is>
       </c>
     </row>
@@ -715,17 +715,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>{'Other Finding Aids': 532}</t>
+          <t>{'Other Finding Aids': 518}</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>{True: 532}</t>
+          <t>{True: 518}</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>{'literal': 532}</t>
+          <t>{'literal': 518}</t>
         </is>
       </c>
     </row>
@@ -759,17 +759,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>{'Related Material': 172}</t>
+          <t>{'Related Material': 175}</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>{True: 172}</t>
+          <t>{True: 175}</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>{'literal': 172}</t>
+          <t>{'literal': 175}</t>
         </is>
       </c>
     </row>
@@ -781,17 +781,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>{'Scope and Content': 1325}</t>
+          <t>{'Scope and Content': 1338}</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>{True: 1325}</t>
+          <t>{True: 1338}</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>{'literal': 1325}</t>
+          <t>{'literal': 1338}</t>
         </is>
       </c>
     </row>
@@ -803,17 +803,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>{'Use Restrictions': 213}</t>
+          <t>{'Use Restrictions': 182}</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>{True: 213}</t>
+          <t>{True: 182}</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{'literal': 213}</t>
+          <t>{'literal': 182}</t>
         </is>
       </c>
     </row>
@@ -825,17 +825,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>{'Call Number': 48045}</t>
+          <t>{'Call Number': 48467}</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>{True: 48045}</t>
+          <t>{True: 48467}</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>{'literal': 48045}</t>
+          <t>{'literal': 48467}</t>
         </is>
       </c>
     </row>
@@ -847,17 +847,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>{'Title Transcription': 648}</t>
+          <t>{'Title Transcription': 662}</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>{True: 648}</t>
+          <t>{True: 662}</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>{'literal': 648}</t>
+          <t>{'literal': 662}</t>
         </is>
       </c>
     </row>
@@ -869,17 +869,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>{'Date Available': 929}</t>
+          <t>{'Date Available': 721}</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>{True: 929}</t>
+          <t>{True: 721}</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>{'literal': 929}</t>
+          <t>{'literal': 721}</t>
         </is>
       </c>
     </row>
@@ -891,17 +891,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>{'Creator': 37216}</t>
+          <t>{'Creator': 37636}</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>{True: 37216}</t>
+          <t>{True: 37636}</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>{'literal': 37216}</t>
+          <t>{'literal': 37636}</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>{'Date': 37746}</t>
+          <t>{'Date': 38108}</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>{True: 37746}</t>
+          <t>{True: 38108}</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>{'literal': 37746}</t>
+          <t>{'literal': 38108}</t>
         </is>
       </c>
     </row>
@@ -935,17 +935,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>{'Description': 2242}</t>
+          <t>{'Description': 1818}</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>{True: 2242}</t>
+          <t>{True: 1818}</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>{'literal': 2242}</t>
+          <t>{'literal': 1818}</t>
         </is>
       </c>
     </row>
@@ -957,17 +957,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>{'Extent': 47000}</t>
+          <t>{'Extent': 47421}</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>{True: 47000}</t>
+          <t>{True: 47421}</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>{'literal': 47000}</t>
+          <t>{'literal': 47421}</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>{'Identifier': 48112}</t>
+          <t>{'Identifier': 48534}</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>{True: 48111, False: 1}</t>
+          <t>{True: 48533, False: 1}</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>{'literal': 48112}</t>
+          <t>{'literal': 48534}</t>
         </is>
       </c>
     </row>
@@ -1001,17 +1001,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>{'Is Part Of': 29657}</t>
+          <t>{'Is Part Of': 29614}</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>{True: 29657}</t>
+          <t>{True: 29614}</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>{'uri': 29657}</t>
+          <t>{'uri': 29614}</t>
         </is>
       </c>
     </row>
@@ -1023,17 +1023,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>{'Language': 384}</t>
+          <t>{'Language': 368}</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>{True: 384}</t>
+          <t>{True: 368}</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>{'literal': 384}</t>
+          <t>{'literal': 368}</t>
         </is>
       </c>
     </row>
@@ -1045,17 +1045,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>{'Medium': 14141}</t>
+          <t>{'Medium': 14532}</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>{True: 14141}</t>
+          <t>{True: 14532}</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>{'literal': 14141}</t>
+          <t>{'literal': 14532}</t>
         </is>
       </c>
     </row>
@@ -1067,17 +1067,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>{'Relation': 31302}</t>
+          <t>{'Relation': 31255}</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>{True: 31302}</t>
+          <t>{True: 31255}</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>{'uri': 31302}</t>
+          <t>{'uri': 31255}</t>
         </is>
       </c>
     </row>
@@ -1133,17 +1133,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>{'Title': 48112}</t>
+          <t>{'Title': 48534}</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>{True: 48112}</t>
+          <t>{True: 48534}</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>{'literal': 48112}</t>
+          <t>{'literal': 48534}</t>
         </is>
       </c>
     </row>
@@ -1177,17 +1177,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>{'Is Aggregated By': 48050}</t>
+          <t>{'Is Aggregated By': 47489}</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>{True: 45284, False: 2766}</t>
+          <t>{False: 47381, True: 108}</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>{'resource': 47957, 'literal': 93}</t>
+          <t>{'resource': 47386, 'literal': 93, 'resource:item': 10}</t>
         </is>
       </c>
     </row>
@@ -1199,17 +1199,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>{'seeAlso': 31302}</t>
+          <t>{'seeAlso': 31255}</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>{True: 31302}</t>
+          <t>{True: 31255}</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>{'uri': 31302}</t>
+          <t>{'uri': 31255}</t>
         </is>
       </c>
     </row>
@@ -1243,17 +1243,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>{'arrangement': 286}</t>
+          <t>{'arrangement': 255}</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>{True: 286}</t>
+          <t>{True: 255}</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>{'literal': 286}</t>
+          <t>{'literal': 255}</t>
         </is>
       </c>
     </row>
@@ -1265,17 +1265,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>{'内容摘記': 615}</t>
+          <t>{'内容摘記': 628}</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>{True: 615}</t>
+          <t>{True: 628}</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>{'literal': 615}</t>
+          <t>{'literal': 628}</t>
         </is>
       </c>
     </row>
@@ -1287,17 +1287,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>{'包含資料の作成年月日': 195}</t>
+          <t>{'包含資料の作成年月日': 168}</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>{True: 195}</t>
+          <t>{True: 168}</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>{'literal': 195}</t>
+          <t>{'literal': 168}</t>
         </is>
       </c>
     </row>
@@ -1309,17 +1309,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>{'法的位置付': 602}</t>
+          <t>{'法的位置付': 616}</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>{True: 602}</t>
+          <t>{True: 616}</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>{'literal': 602}</t>
+          <t>{'literal': 616}</t>
         </is>
       </c>
     </row>
@@ -1353,17 +1353,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>{'Rights of Metadata': 48110}</t>
+          <t>{'Rights of Metadata': 48534}</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>{True: 47664, False: 446}</t>
+          <t>{True: 48088, False: 446}</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>{'uri': 48110}</t>
+          <t>{'uri': 48534}</t>
         </is>
       </c>
     </row>
@@ -1375,17 +1375,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>{'備考': 11415}</t>
+          <t>{'備考': 11121}</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>{True: 11100, False: 315}</t>
+          <t>{True: 10806, False: 315}</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>{'literal': 11415}</t>
+          <t>{'literal': 11121}</t>
         </is>
       </c>
     </row>
@@ -1397,17 +1397,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>{'資料区分': 44572}</t>
+          <t>{'資料区分': 44526}</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>{True: 44572}</t>
+          <t>{True: 44526}</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>{'literal': 44572}</t>
+          <t>{'literal': 44526}</t>
         </is>
       </c>
     </row>
@@ -1419,17 +1419,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>{'他機関所蔵関連資料': 116}</t>
+          <t>{'他機関所蔵関連資料': 111}</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>{True: 116}</t>
+          <t>{True: 111}</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>{'literal': 116}</t>
+          <t>{'literal': 111}</t>
         </is>
       </c>
     </row>
